--- a/Data/EC/NIT-9012768696.xlsx
+++ b/Data/EC/NIT-9012768696.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129CF7E4-039A-4D96-9613-54332A9C5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13B0F33-40E0-4383-B8D9-8593FF21FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BC5A3C2-998A-4DEC-BACD-F4206A869585}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC16794D-D46B-4211-8339-6541A4414F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,12 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1065822220</t>
+  </si>
+  <si>
+    <t>KEVIN DUVAN MARMOL RAMOS</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>91325473</t>
+  </si>
+  <si>
+    <t>DEIVIS PEREZ GOMEZ</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>91499088</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO MARIN VARGAS</t>
+  </si>
+  <si>
     <t>1147687280</t>
   </si>
   <si>
     <t>DARINEL NAVARRO MATTOS</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2111</t>
   </si>
   <si>
@@ -80,28 +116,10 @@
     <t>MIGUEL VILLAR PINTO</t>
   </si>
   <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1065822220</t>
-  </si>
-  <si>
-    <t>KEVIN DUVAN MARMOL RAMOS</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
     <t>1002419821</t>
   </si>
   <si>
     <t>LUIS ALFREDO CADAVID MEZA</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -145,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540229D5-2B71-DE86-5244-63F50F12D116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EC8EFF-75DE-2555-7F0F-6AC30D7B019E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,32 +884,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990BC398-5659-4169-A685-A895496B12CE}">
-  <dimension ref="B2:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641D597-C8F2-4D29-9378-0F9A757F796F}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -900,7 +918,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -911,7 +929,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -922,7 +940,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -933,10 +951,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -949,8 +967,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -965,15 +983,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>556341</v>
+        <v>638269</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -981,27 +999,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1021,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G16" s="18">
         <v>1500000</v>
@@ -1053,30 +1071,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
@@ -1099,90 +1117,90 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="18">
-        <v>60000</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>60000</v>
+        <v>11704</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G22" s="18">
         <v>1500000</v>
@@ -1191,18 +1209,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1214,21 +1232,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="18">
         <v>1500000</v>
@@ -1237,57 +1255,126 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="C25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="24">
-        <v>50000</v>
-      </c>
-      <c r="G25" s="24">
+      <c r="E25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G25" s="18">
         <v>1500000</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G27" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="24">
+        <v>60000</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012768696.xlsx
+++ b/Data/EC/NIT-9012768696.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13B0F33-40E0-4383-B8D9-8593FF21FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC9C72B-4ECF-4EB8-B7AA-3459A3528FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC16794D-D46B-4211-8339-6541A4414F7A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A394C118-4258-4094-9EF5-4EBA4DD19D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,61 +65,43 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1147687280</t>
+  </si>
+  <si>
+    <t>DARINEL NAVARRO MATTOS</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>1095925802</t>
+  </si>
+  <si>
+    <t>MIGUEL VILLAR PINTO</t>
+  </si>
+  <si>
     <t>1065822220</t>
   </si>
   <si>
     <t>KEVIN DUVAN MARMOL RAMOS</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1002419821</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO CADAVID MEZA</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>91325473</t>
-  </si>
-  <si>
-    <t>DEIVIS PEREZ GOMEZ</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>91499088</t>
-  </si>
-  <si>
-    <t>CARLOS FERNANDO MARIN VARGAS</t>
-  </si>
-  <si>
-    <t>1147687280</t>
-  </si>
-  <si>
-    <t>DARINEL NAVARRO MATTOS</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>1095925802</t>
-  </si>
-  <si>
-    <t>MIGUEL VILLAR PINTO</t>
-  </si>
-  <si>
-    <t>1002419821</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO CADAVID MEZA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EC8EFF-75DE-2555-7F0F-6AC30D7B019E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1929B1DC-03E6-41B0-B685-EB716904DD00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641D597-C8F2-4D29-9378-0F9A757F796F}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3AB964-2C8F-465D-9509-60A9D99998AD}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -896,7 +878,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -909,7 +891,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +936,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +968,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>638269</v>
+        <v>556341</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +984,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
         <v>1500000</v>
@@ -1076,19 +1058,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1099,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
@@ -1122,19 +1104,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>11704</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1191,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
         <v>1500000</v>
@@ -1214,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1237,16 +1219,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="18">
         <v>1500000</v>
@@ -1256,125 +1238,56 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F25" s="24">
+        <v>50000</v>
+      </c>
+      <c r="G25" s="24">
         <v>1500000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G27" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G28" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012768696.xlsx
+++ b/Data/EC/NIT-9012768696.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC9C72B-4ECF-4EB8-B7AA-3459A3528FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90330170-A1BF-430E-9331-69E4C78CF1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A394C118-4258-4094-9EF5-4EBA4DD19D87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1867B66-61C8-40F2-BA29-F39357BD3E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -215,7 +213,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,29 +409,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,19 +450,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1929B1DC-03E6-41B0-B685-EB716904DD00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD04ED6-1FF3-07B4-1A6F-286A3F2DE206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3AB964-2C8F-465D-9509-60A9D99998AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B47A22-BF90-4515-9336-201DEA3945F8}">
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -889,49 +895,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -939,7 +945,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -955,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9012768696</v>
       </c>
@@ -971,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>556341</v>
       </c>
@@ -1040,18 +1046,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>60000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1500000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1063,18 +1069,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1086,18 +1092,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>60000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1500000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1109,18 +1115,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>60000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1500000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1132,18 +1138,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>60000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1500000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1155,18 +1161,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>60000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1500000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1178,18 +1184,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>60000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1500000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1201,18 +1207,18 @@
       <c r="D23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>60000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1500000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1224,47 +1230,47 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>50000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1500000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="26">
         <v>50000</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="26">
         <v>1500000</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="34"/>
       <c r="H30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1272,10 +1278,10 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>32</v>
       </c>
